--- a/PLANIFICACIÓN/Planificacion.xlsx
+++ b/PLANIFICACIÓN/Planificacion.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrià\Desktop\1819\proyecto1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28275" windowHeight="12960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>LISTA DE TAREAS</t>
   </si>
@@ -81,12 +81,78 @@
   </si>
   <si>
     <t>Añade a reserva el registro de el recurso cantidad y fecha inicio  y el usuario</t>
+  </si>
+  <si>
+    <t>Tiempo previsto</t>
+  </si>
+  <si>
+    <t>Tecnico asignado</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>0,30h</t>
+  </si>
+  <si>
+    <t>0,20h</t>
+  </si>
+  <si>
+    <t>Descarga y subida de ficheros Git Hub</t>
+  </si>
+  <si>
+    <t>0,10h/dia</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Manu</t>
+  </si>
+  <si>
+    <t>Planificacion inicial</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>Adria y Manu</t>
+  </si>
+  <si>
+    <t>Adria,Marc y Manu</t>
+  </si>
+  <si>
+    <t>Creacion de una pagina en Git Hub</t>
+  </si>
+  <si>
+    <t>Añadir un manual de usuario de nuestro proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escribir README </t>
+  </si>
+  <si>
+    <t>Poner 3 links con nuestros curriculums y un enlace a la pagina que explica la descripcion de nuestro proyecto</t>
+  </si>
+  <si>
+    <t>Diseño de la pagina web</t>
+  </si>
+  <si>
+    <t>Diseñar nuestra web</t>
+  </si>
+  <si>
+    <t>Adria</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -137,6 +203,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,103 +486,236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="89.42578125" customWidth="1"/>
-    <col min="2" max="2" width="51.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PLANIFICACIÓN/Planificacion.xlsx
+++ b/PLANIFICACIÓN/Planificacion.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Manu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrià\Desktop\1819\proyecto1\PLANIFICACIÓN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -489,7 +489,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
